--- a/level-3/leetcode/phase-3-mathematics-strings/leetcode-phase-3-mathematics-strings.xlsx
+++ b/level-3/leetcode/phase-3-mathematics-strings/leetcode-phase-3-mathematics-strings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1193AC-BED5-4252-A329-DEA1F5EF9BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064DEC03-E857-4EA4-B282-9F5275D3B7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,106 +932,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1460,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <f>COUNTA(J4:J946)</f>
+        <f>COUNTA(J4:J826)</f>
         <v>216</v>
       </c>
     </row>
@@ -5933,76 +5834,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="13" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J34 J36:J39">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J40">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145:J147">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J142">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J87:J89">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{614A43BC-9445-42F0-B02C-37C276290DBB}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{6876BE5B-DE65-4308-9AC6-F9DD0387EEE5}"/>
